--- a/doc/work flow.xlsx
+++ b/doc/work flow.xlsx
@@ -7,13 +7,13 @@
   <sheets>
     <sheet name="UI Flow" sheetId="1" r:id="rId4"/>
     <sheet name="开发时间表" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="bugliza" sheetId="3" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -80,6 +80,9 @@
     </r>
   </si>
   <si>
+    <t>具备一定寻找技术解决方案解决问题的能力，学习新知识能力较强。还需进一步操练实践优秀代码的编写。功能实现虽复杂，但技术上没有难度，独立开发功能的水平还没达到标准</t>
+  </si>
+  <si>
     <t>下载管理</t>
   </si>
   <si>
@@ -88,7 +91,16 @@
 相关提示框的增加，增强用户体验，以百度浏览器的样式和配色优化）</t>
   </si>
   <si>
+    <t>具备一定自主编程的能力，面向对象的编程思维模式和解决现有功能bug的能力有待提升，功能中存在明显bug，单元测试通过是代码的最基本标准。</t>
+  </si>
+  <si>
     <t>优化完善每个界面的actionbar 和底部menu</t>
+  </si>
+  <si>
+    <t>工作能力有限没有完成，态度不成熟，若延续现状，后续技术能力发掘发展瓶颈较大</t>
+  </si>
+  <si>
+    <t>第一版功能完善，bug修复。任务在bugliza里</t>
   </si>
   <si>
     <t>服务器API接入</t>
@@ -101,9 +113,99 @@
   </si>
   <si>
     <t>注明 分三组
-黄色：张剑组、  红色：胡滢滢、 蓝色：刘明冉
+黄色：张剑组、  红色：胡滢滢、 蓝色：刘明冉、 绿色：共同完成
 关于设置相关的界面可以参照 百度 uc 搜狗 qq浏览器实现，那个简单用哪个
 每做一个功能前，先整理需求，找好资料，想好技术解决方案，把方案告提前诉我，前期我需要把控下开发思路</t>
+  </si>
+  <si>
+    <t>bug描述</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>bookmark 和 history list里的数据用主键绑定，删除功能有问题</t>
+  </si>
+  <si>
+    <t>huyingying</t>
+  </si>
+  <si>
+    <t>完成网址输入界面剩下的逻辑功能，参照百度浏览器</t>
+  </si>
+  <si>
+    <t>zhangjian</t>
+  </si>
+  <si>
+    <t>grid菜单对话框，点击菜单外部，隐藏菜单</t>
+  </si>
+  <si>
+    <t>日间，夜间功能，按照搜狗浏览器的样式实现</t>
+  </si>
+  <si>
+    <t>从其他activity跳回主网页界面，显示不出网页</t>
+  </si>
+  <si>
+    <t>推荐界面 的网址写到数据库中，默认的这些网址在第一次运行程序的时候就要写入数据库，可能在表中要加一个字段用来表示推荐网址</t>
+  </si>
+  <si>
+    <t>底部菜单多页按钮数字显示</t>
+  </si>
+  <si>
+    <t>liumingran</t>
+  </si>
+  <si>
+    <t>全屏功能参照搜狗浏览器</t>
+  </si>
+  <si>
+    <t>下载管理界面优化，参照搜狗浏览器，界面代码已经移到主工程</t>
+  </si>
+  <si>
+    <t>浏览网页内，如果有下载链接，用户点击后进入下载管理界面，可看到下载进度，参照搜狗浏览器</t>
+  </si>
+  <si>
+    <t>grid菜单弹出菜单中的图标都从搜狗浏览器apk中获取，其中“更换壁纸” “阅读模式”“页内查找”“保存网页”几个功能先去掉</t>
+  </si>
+  <si>
+    <t>添加书签按钮，点击后增加一个对话框，有两个选项添加到书签和添加到推荐，对话框参照百度浏览器</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>webview缓存机制</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="14"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>http://blog.csdn.net/t12x3456/article/details/13745553</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t xml:space="preserve">  无痕浏览为不记录任何浏览记录，也就是数据库里不会有历史记录，无图浏览为webview不会抓取网页图片</t>
+    </r>
+  </si>
+  <si>
+    <t>翻页功能 弹出的popwindow，图标也换成百度的样式，然后加上 上下箭头的功能</t>
+  </si>
+  <si>
+    <t>多页功能实现</t>
+  </si>
+  <si>
+    <t>设置页面重构，界面布局用scrollview，里面每个item的样式参照搜狗浏览器，item的内容为 “字体大小”“ 屏幕亮度”“ 默认浏览器”“ 关于我们” “清除数据”“ 恢复默认设置”</t>
   </si>
 </sst>
 </file>
@@ -113,7 +215,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -155,8 +257,20 @@
       <color indexed="14"/>
       <name val="宋体"/>
     </font>
+    <font>
+      <b val="1"/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +292,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -343,7 +469,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -434,6 +560,15 @@
     <xf numFmtId="1" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -441,6 +576,21 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -466,6 +616,8 @@
       <rgbColor rgb="ffffff00"/>
       <rgbColor rgb="ff4f81bd"/>
       <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ff33f93c"/>
+      <rgbColor rgb="fffef700"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -5933,7 +6085,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP27"/>
+  <dimension ref="A1:AP28"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -6457,7 +6609,9 @@
       <c r="P9" t="s" s="22">
         <v>3</v>
       </c>
-      <c r="Q9" s="21"/>
+      <c r="Q9" t="s" s="22">
+        <v>10</v>
+      </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
@@ -6486,7 +6640,7 @@
     </row>
     <row r="10" ht="18" customHeight="1">
       <c r="A10" t="s" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6532,7 +6686,7 @@
     </row>
     <row r="11" ht="53" customHeight="1">
       <c r="A11" t="s" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -6547,7 +6701,9 @@
       <c r="L11" s="19"/>
       <c r="M11" s="19"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="29"/>
+      <c r="O11" t="s" s="30">
+        <v>13</v>
+      </c>
       <c r="P11" s="29"/>
       <c r="Q11" s="29"/>
       <c r="R11" s="29"/>
@@ -6578,7 +6734,7 @@
     </row>
     <row r="12" ht="18" customHeight="1">
       <c r="A12" t="s" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6593,13 +6749,15 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="27"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="10"/>
+      <c r="O12" t="s" s="31">
+        <v>15</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="16"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -6624,7 +6782,7 @@
     </row>
     <row r="13" ht="18" customHeight="1">
       <c r="A13" t="s" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6640,13 +6798,13 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="19"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="16"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
@@ -6655,12 +6813,12 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
@@ -6670,7 +6828,7 @@
     </row>
     <row r="14" ht="18" customHeight="1">
       <c r="A14" t="s" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6687,11 +6845,11 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
@@ -6716,7 +6874,7 @@
     </row>
     <row r="15" ht="18" customHeight="1">
       <c r="A15" t="s" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6761,7 +6919,9 @@
       <c r="AP15" s="2"/>
     </row>
     <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="2"/>
+      <c r="A16" t="s" s="3">
+        <v>19</v>
+      </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -6937,16 +7097,14 @@
       <c r="AP19" s="2"/>
     </row>
     <row r="20" ht="18" customHeight="1">
-      <c r="A20" t="s" s="30">
-        <v>16</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -6983,14 +7141,16 @@
       <c r="AP20" s="2"/>
     </row>
     <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
+      <c r="A21" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -7027,14 +7187,14 @@
       <c r="AP21" s="2"/>
     </row>
     <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -7071,14 +7231,14 @@
       <c r="AP22" s="2"/>
     </row>
     <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -7115,14 +7275,14 @@
       <c r="AP23" s="2"/>
     </row>
     <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -7159,14 +7319,14 @@
       <c r="AP24" s="2"/>
     </row>
     <row r="25" ht="18" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -7203,14 +7363,14 @@
       <c r="AP25" s="2"/>
     </row>
     <row r="26" ht="18" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -7247,14 +7407,14 @@
       <c r="AP26" s="2"/>
     </row>
     <row r="27" ht="18" customHeight="1">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -7290,10 +7450,54 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
     </row>
+    <row r="28" ht="18" customHeight="1">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A20:H27"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A21:H28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" location="" tooltip="" display=""/>
@@ -7308,91 +7512,418 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="32" customWidth="1"/>
-    <col min="6" max="256" width="7.625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="61.1016" style="35" customWidth="1"/>
+    <col min="2" max="2" width="28.3203" style="35" customWidth="1"/>
+    <col min="3" max="3" width="14.4688" style="35" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="35" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="35" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="35" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="35" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="35" customWidth="1"/>
+    <col min="11" max="11" width="7.625" style="35" customWidth="1"/>
+    <col min="12" max="256" width="7.625" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+    <row r="1" ht="24" customHeight="1">
+      <c r="A1" t="s" s="36">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s" s="37">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s" s="38">
+        <v>23</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" t="s" s="22">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s" s="39">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" t="s" s="31">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s" s="39">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" t="s" s="40">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s" s="39">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" t="s" s="22">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s" s="39">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" t="s" s="31">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s" s="39">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" t="s" s="22">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s" s="39">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" t="s" s="30">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s" s="39">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" t="s" s="22">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="39">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" t="s" s="30">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s" s="39">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" ht="18" customHeight="1">
+      <c r="A11" t="s" s="30">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s" s="39">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" ht="18" customHeight="1">
+      <c r="A12" t="s" s="30">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s" s="39">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" ht="18" customHeight="1">
+      <c r="A13" t="s" s="22">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s" s="39">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" ht="21" customHeight="1">
+      <c r="A14" t="s" s="22">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s" s="39">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" ht="18" customHeight="1">
+      <c r="A15" t="s" s="30">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s" s="39">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" ht="18" customHeight="1">
+      <c r="A16" t="s" s="30">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="39">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" ht="18" customHeight="1">
+      <c r="A17" t="s" s="31">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s" s="39">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" ht="18" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" ht="18" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" ht="18" customHeight="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" ht="18" customHeight="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" ht="18" customHeight="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A14" r:id="rId1" location="" tooltip="" display=""/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
   <headerFooter>

--- a/doc/work flow.xlsx
+++ b/doc/work flow.xlsx
@@ -8,12 +8,13 @@
     <sheet name="UI Flow" sheetId="1" r:id="rId4"/>
     <sheet name="开发时间表" sheetId="2" r:id="rId5"/>
     <sheet name="bugliza" sheetId="3" r:id="rId6"/>
+    <sheet name="开发要求" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -103,6 +104,9 @@
     <t>第一版功能完善，bug修复。任务在bugliza里</t>
   </si>
   <si>
+    <t> 延期4天</t>
+  </si>
+  <si>
     <t>服务器API接入</t>
   </si>
   <si>
@@ -127,6 +131,12 @@
     <t>优先级</t>
   </si>
   <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
     <t>bookmark 和 history list里的数据用主键绑定，删除功能有问题</t>
   </si>
   <si>
@@ -139,16 +149,34 @@
     <t>zhangjian</t>
   </si>
   <si>
+    <t>fragment的机制还是没搞明白</t>
+  </si>
+  <si>
     <t>grid菜单对话框，点击菜单外部，隐藏菜单</t>
+  </si>
+  <si>
+    <t>同上</t>
   </si>
   <si>
     <t>日间，夜间功能，按照搜狗浏览器的样式实现</t>
   </si>
   <si>
+    <t>功能没做完</t>
+  </si>
+  <si>
     <t>从其他activity跳回主网页界面，显示不出网页</t>
   </si>
   <si>
+    <t>100%（非本人完成）</t>
+  </si>
+  <si>
+    <t>实现的思路错误</t>
+  </si>
+  <si>
     <t>推荐界面 的网址写到数据库中，默认的这些网址在第一次运行程序的时候就要写入数据库，可能在表中要加一个字段用来表示推荐网址</t>
+  </si>
+  <si>
+    <t>一开始实现思路错误</t>
   </si>
   <si>
     <t>底部菜单多页按钮数字显示</t>
@@ -160,16 +188,31 @@
     <t>全屏功能参照搜狗浏览器</t>
   </si>
   <si>
+    <t>百度的全屏底部菜单也是没有的，有菜单还叫全屏么，开发前为什么不做需求确认，万一思路错误了呢，你的时间和项目的时间都被拖延</t>
+  </si>
+  <si>
     <t>下载管理界面优化，参照搜狗浏览器，界面代码已经移到主工程</t>
+  </si>
+  <si>
+    <t>还是原来的界面，图标还是机器人</t>
   </si>
   <si>
     <t>浏览网页内，如果有下载链接，用户点击后进入下载管理界面，可看到下载进度，参照搜狗浏览器</t>
   </si>
   <si>
+    <t>这个需求有看懂吗</t>
+  </si>
+  <si>
     <t>grid菜单弹出菜单中的图标都从搜狗浏览器apk中获取，其中“更换壁纸” “阅读模式”“页内查找”“保存网页”几个功能先去掉</t>
   </si>
   <si>
+    <t>选中阴影和文字有重合，明显的界面瑕疵</t>
+  </si>
+  <si>
     <t>添加书签按钮，点击后增加一个对话框，有两个选项添加到书签和添加到推荐，对话框参照百度浏览器</t>
+  </si>
+  <si>
+    <t>留有黑色背景框</t>
   </si>
   <si>
     <r>
@@ -202,7 +245,13 @@
     <t>翻页功能 弹出的popwindow，图标也换成百度的样式，然后加上 上下箭头的功能</t>
   </si>
   <si>
+    <t>向上箭头的功能有明显漏洞</t>
+  </si>
+  <si>
     <t>多页功能实现</t>
+  </si>
+  <si>
+    <t>思路已经告诉你了，怎么还一意孤行重构其他实现代码，那个代码的风险你控制不住，可我们的需求也不一样</t>
   </si>
   <si>
     <t>设置页面重构，界面布局用scrollview，里面每个item的样式参照搜狗浏览器，item的内容为 “字体大小”“ 屏幕亮度”“ 默认浏览器”“ 关于我们” “清除数据”“ 恢复默认设置”</t>
@@ -219,6 +268,36 @@
   <si>
     <t>caoanyang</t>
   </si>
+  <si>
+    <t>添加书签的对话框去掉黑色背景框</t>
+  </si>
+  <si>
+    <t>历史界面，浏览历史要能单挑删除</t>
+  </si>
+  <si>
+    <t>在主界面时，“添加书签”按钮为无效，主页无需加入收藏</t>
+  </si>
+  <si>
+    <t>设置界面布局优化，完成张剑未完成的部分</t>
+  </si>
+  <si>
+    <t>代码中不能出现中文，一律写到string.xml</t>
+  </si>
+  <si>
+    <t>新添加的类必须得写上创建者注释</t>
+  </si>
+  <si>
+    <t>在别人代码里做修改必须写上标注</t>
+  </si>
+  <si>
+    <t>写代码前先要有方案，思路不清晰不许写代码，并且将思路用文字表述出来</t>
+  </si>
+  <si>
+    <t>一个功能不能开发到一半有明显问题就搁置不管，或者将问题公布，得开发其他功能准许</t>
+  </si>
+  <si>
+    <t>每天更新trello</t>
+  </si>
 </sst>
 </file>
 
@@ -227,7 +306,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -281,8 +360,19 @@
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,8 +421,50 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="21"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="24"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -487,13 +619,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -593,6 +740,9 @@
     <xf numFmtId="1" fontId="4" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -614,6 +764,9 @@
     <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="9" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -622,6 +775,36 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,6 +833,13 @@
       <rgbColor rgb="fffef700"/>
       <rgbColor rgb="ffd15434"/>
       <rgbColor rgb="ffffa93a"/>
+      <rgbColor rgb="ff1e73c4"/>
+      <rgbColor rgb="ffffe061"/>
+      <rgbColor rgb="ff2e8cc1"/>
+      <rgbColor rgb="ff2091c3"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="fff4f4f4"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -6851,16 +7041,18 @@
       <c r="AH13" s="32"/>
       <c r="AI13" s="32"/>
       <c r="AJ13" s="32"/>
-      <c r="AK13" s="2"/>
-      <c r="AL13" s="2"/>
-      <c r="AM13" s="2"/>
-      <c r="AN13" s="2"/>
+      <c r="AK13" t="s" s="33">
+        <v>17</v>
+      </c>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="32"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
     </row>
     <row r="14" ht="18" customHeight="1">
       <c r="A14" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6906,7 +7098,7 @@
     </row>
     <row r="15" ht="18" customHeight="1">
       <c r="A15" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6952,7 +7144,7 @@
     </row>
     <row r="16" ht="18" customHeight="1">
       <c r="A16" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -7173,16 +7365,16 @@
       <c r="AP20" s="2"/>
     </row>
     <row r="21" ht="18" customHeight="1">
-      <c r="A21" t="s" s="33">
-        <v>20</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
+      <c r="A21" t="s" s="34">
+        <v>21</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -7219,14 +7411,14 @@
       <c r="AP21" s="2"/>
     </row>
     <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -7263,14 +7455,14 @@
       <c r="AP22" s="2"/>
     </row>
     <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -7307,14 +7499,14 @@
       <c r="AP23" s="2"/>
     </row>
     <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="34"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -7351,14 +7543,14 @@
       <c r="AP24" s="2"/>
     </row>
     <row r="25" ht="18" customHeight="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -7395,14 +7587,14 @@
       <c r="AP25" s="2"/>
     </row>
     <row r="26" ht="18" customHeight="1">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -7439,14 +7631,14 @@
       <c r="AP26" s="2"/>
     </row>
     <row r="27" ht="18" customHeight="1">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -7483,14 +7675,14 @@
       <c r="AP27" s="2"/>
     </row>
     <row r="28" ht="18" customHeight="1">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -7544,38 +7736,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="61.1016" style="35" customWidth="1"/>
-    <col min="2" max="2" width="28.3203" style="35" customWidth="1"/>
-    <col min="3" max="3" width="14.4688" style="35" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="35" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="35" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="35" customWidth="1"/>
-    <col min="8" max="8" width="7.625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="35" customWidth="1"/>
-    <col min="10" max="10" width="7.625" style="35" customWidth="1"/>
-    <col min="11" max="11" width="7.625" style="35" customWidth="1"/>
-    <col min="12" max="256" width="7.625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="61.1016" style="36" customWidth="1"/>
+    <col min="2" max="2" width="28.3203" style="36" customWidth="1"/>
+    <col min="3" max="3" width="14.4688" style="36" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="7.625" style="36" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="36" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="36" customWidth="1"/>
+    <col min="11" max="11" width="7.625" style="36" customWidth="1"/>
+    <col min="12" max="256" width="7.625" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
-      <c r="A1" t="s" s="36">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s" s="37">
+      <c r="A1" t="s" s="37">
         <v>22</v>
       </c>
-      <c r="C1" t="s" s="38">
+      <c r="B1" t="s" s="38">
         <v>23</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" t="s" s="39">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s" s="3">
+        <v>26</v>
+      </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -7585,15 +7781,17 @@
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" t="s" s="22">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s" s="39">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="40">
+        <v>28</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="41">
+        <v>0.8</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -7604,16 +7802,20 @@
     </row>
     <row r="3" ht="18" customHeight="1">
       <c r="A3" t="s" s="31">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s" s="39">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="40">
+        <v>30</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="41">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s" s="3">
+        <v>31</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -7622,17 +7824,21 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" t="s" s="40">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s" s="39">
-        <v>27</v>
+      <c r="A4" t="s" s="42">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="40">
+        <v>30</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="41">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s" s="3">
+        <v>33</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -7642,16 +7848,20 @@
     </row>
     <row r="5" ht="18" customHeight="1">
       <c r="A5" t="s" s="22">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s" s="39">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="40">
+        <v>28</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="E5" t="s" s="3">
+        <v>35</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -7661,16 +7871,20 @@
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="A6" t="s" s="31">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="40">
         <v>30</v>
-      </c>
-      <c r="B6" t="s" s="39">
-        <v>27</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="D6" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s" s="3">
+        <v>38</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -7680,16 +7894,20 @@
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="A7" t="s" s="22">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s" s="39">
-        <v>25</v>
+        <v>39</v>
+      </c>
+      <c r="B7" t="s" s="40">
+        <v>28</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="41">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s" s="3">
+        <v>40</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -7699,15 +7917,17 @@
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="A8" t="s" s="30">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s" s="39">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="40">
+        <v>42</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="41">
+        <v>0</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -7718,16 +7938,20 @@
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="A9" t="s" s="22">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s" s="39">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="B9" t="s" s="40">
+        <v>28</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="41">
+        <v>0.6</v>
+      </c>
+      <c r="E9" t="s" s="3">
+        <v>44</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -7737,16 +7961,20 @@
     </row>
     <row r="10" ht="18" customHeight="1">
       <c r="A10" t="s" s="30">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s" s="39">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="B10" t="s" s="40">
+        <v>42</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="E10" t="s" s="3">
+        <v>46</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -7756,16 +7984,20 @@
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="A11" t="s" s="30">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s" s="39">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="B11" t="s" s="40">
+        <v>42</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="41">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s" s="3">
+        <v>48</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -7775,16 +8007,20 @@
     </row>
     <row r="12" ht="18" customHeight="1">
       <c r="A12" t="s" s="30">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s" s="39">
-        <v>33</v>
+        <v>49</v>
+      </c>
+      <c r="B12" t="s" s="40">
+        <v>42</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="41">
+        <v>0.9</v>
+      </c>
+      <c r="E12" t="s" s="3">
+        <v>50</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -7794,16 +8030,20 @@
     </row>
     <row r="13" ht="18" customHeight="1">
       <c r="A13" t="s" s="22">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s" s="39">
-        <v>25</v>
+        <v>51</v>
+      </c>
+      <c r="B13" t="s" s="40">
+        <v>28</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="41">
+        <v>0.9</v>
+      </c>
+      <c r="E13" t="s" s="3">
+        <v>52</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -7813,15 +8053,17 @@
     </row>
     <row r="14" ht="21" customHeight="1">
       <c r="A14" t="s" s="22">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s" s="39">
-        <v>25</v>
+        <v>53</v>
+      </c>
+      <c r="B14" t="s" s="40">
+        <v>28</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="41">
+        <v>1</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -7832,16 +8074,20 @@
     </row>
     <row r="15" ht="18" customHeight="1">
       <c r="A15" t="s" s="30">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s" s="39">
-        <v>33</v>
+        <v>54</v>
+      </c>
+      <c r="B15" t="s" s="40">
+        <v>42</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="D15" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="E15" t="s" s="3">
+        <v>55</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -7851,16 +8097,20 @@
     </row>
     <row r="16" ht="18" customHeight="1">
       <c r="A16" t="s" s="30">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s" s="39">
-        <v>33</v>
+        <v>56</v>
+      </c>
+      <c r="B16" t="s" s="40">
+        <v>42</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="41">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s" s="3">
+        <v>57</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -7870,15 +8120,17 @@
     </row>
     <row r="17" ht="18" customHeight="1">
       <c r="A17" t="s" s="31">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s" s="39">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="B17" t="s" s="40">
+        <v>30</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="41">
+        <v>0.4</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -7888,11 +8140,11 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" ht="18" customHeight="1">
-      <c r="A18" t="s" s="41">
-        <v>43</v>
+      <c r="A18" t="s" s="43">
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="3">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -7905,11 +8157,11 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" ht="18" customHeight="1">
-      <c r="A19" t="s" s="42">
-        <v>45</v>
+      <c r="A19" t="s" s="44">
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -7922,7 +8174,7 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -7935,8 +8187,12 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" t="s" s="45">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s" s="3">
+        <v>28</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -7948,8 +8204,12 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" t="s" s="46">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s" s="3">
+        <v>30</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -7959,6 +8219,170 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
+    </row>
+    <row r="23" ht="18" customHeight="1">
+      <c r="A23" t="s" s="47">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" ht="18" customHeight="1">
+      <c r="A24" t="s" s="48">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" ht="18" customHeight="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" ht="18" customHeight="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" ht="18" customHeight="1">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" ht="18" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" ht="18" customHeight="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" ht="18" customHeight="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" ht="18" customHeight="1">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" ht="18" customHeight="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" ht="18" customHeight="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" ht="18" customHeight="1">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7970,4 +8394,118 @@
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="0.25" style="49" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="49" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="49" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="49" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="49" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="49" customWidth="1"/>
+    <col min="7" max="256" width="12.25" style="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="2" customHeight="1"/>
+    <row r="2" ht="20.55" customHeight="1">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" ht="40.55" customHeight="1">
+      <c r="B3" t="s" s="51">
+        <v>67</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+    </row>
+    <row r="4" ht="28.05" customHeight="1">
+      <c r="B4" t="s" s="51">
+        <v>68</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" ht="28.05" customHeight="1">
+      <c r="B5" t="s" s="51">
+        <v>69</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+    </row>
+    <row r="6" ht="58.05" customHeight="1">
+      <c r="B6" t="s" s="51">
+        <v>70</v>
+      </c>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" ht="58.05" customHeight="1">
+      <c r="B7" t="s" s="51">
+        <v>71</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+    </row>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="B8" t="s" s="51">
+        <v>72</v>
+      </c>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+    </row>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="B9" s="54"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+    </row>
+    <row r="10" ht="20.35" customHeight="1">
+      <c r="B10" s="54"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+    </row>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="B11" s="54"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/doc/work flow.xlsx
+++ b/doc/work flow.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="UI Flow" sheetId="1" r:id="rId4"/>
-    <sheet name="开发时间表" sheetId="2" r:id="rId5"/>
-    <sheet name="bugliza" sheetId="3" r:id="rId6"/>
-    <sheet name="开发要求" sheetId="4" r:id="rId7"/>
+    <sheet name="UI Flow" sheetId="1" r:id="rId1"/>
+    <sheet name="开发时间表" sheetId="2" r:id="rId2"/>
+    <sheet name="bugliza" sheetId="3" r:id="rId3"/>
+    <sheet name="开发要求" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -57,6 +60,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">翻页模式、多页样式（图六）  （多页功能解决方案：多页功能其实就pc浏览器里的新增浏览页面的功能，做成和菜单栏一样的效果，界面同样参照百度浏览器， @@ -64,10 +68,11 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="14"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>http://www.cnblogs.com/navyifanr/p/3226762.html</t>
     </r>
@@ -76,6 +81,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>，但不要用里面的viewflipper，就用viewpager）</t>
     </r>
@@ -220,15 +226,17 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>webview缓存机制</t>
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="14"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>http://blog.csdn.net/t12x3456/article/details/13745553</t>
     </r>
@@ -237,6 +245,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  无痕浏览为不记录任何浏览记录，也就是数据库里不会有历史记录，无图浏览为webview不会抓取网页图片</t>
     </r>
@@ -303,62 +312,44 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="14"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color indexed="14"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="16"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -366,10 +357,16 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="16">
@@ -636,217 +633,173 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="55">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff333399"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ff4f81bd"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ff33f93c"/>
-      <rgbColor rgb="fffef700"/>
-      <rgbColor rgb="ffd15434"/>
-      <rgbColor rgb="ffffa93a"/>
-      <rgbColor rgb="ff1e73c4"/>
-      <rgbColor rgb="ffffe061"/>
-      <rgbColor rgb="ff2e8cc1"/>
-      <rgbColor rgb="ff2091c3"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="fff4f4f4"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF33F93C"/>
+      <rgbColor rgb="FFFEF700"/>
+      <rgbColor rgb="FFD15434"/>
+      <rgbColor rgb="FFFFA93A"/>
+      <rgbColor rgb="FF1E73C4"/>
+      <rgbColor rgb="FFFFE061"/>
+      <rgbColor rgb="FF2E8CC1"/>
+      <rgbColor rgb="FF2091C3"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFF4F4F4"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -860,7 +813,7 @@
       <xdr:row>103</xdr:row>
       <xdr:rowOff>151196</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Shape 2"/>
         <xdr:cNvSpPr/>
@@ -884,7 +837,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -894,7 +847,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -911,7 +864,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -924,73 +877,9 @@
               <a:cs typeface="宋体"/>
               <a:sym typeface="宋体"/>
             </a:rPr>
-            <a:t>请确认设置界面的内容参考百度、</a:t>
+            <a:t>请确认设置界面的内容参考百度、UC和QQ浏览器，一些功能是他们的特色功能我们暂时无法实现，下面列出常用功能</a:t>
           </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
-              <a:sym typeface="宋体"/>
-            </a:rPr>
-            <a:t>UC</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
-              <a:sym typeface="宋体"/>
-            </a:rPr>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
-              <a:sym typeface="宋体"/>
-            </a:rPr>
-            <a:t>QQ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
-              <a:sym typeface="宋体"/>
-            </a:rPr>
-            <a:t>浏览器，一些功能是他们的特色功能我们暂时无法实现，下面列出常用功能</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+          <a:endParaRPr sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1005,7 +894,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -1021,7 +910,7 @@
             <a:buNone/>
             <a:tabLst/>
           </a:pPr>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+          <a:endParaRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1036,7 +925,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -1052,7 +941,7 @@
             <a:buNone/>
             <a:tabLst/>
           </a:pPr>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+          <a:endParaRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1067,7 +956,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -1084,7 +973,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1099,7 +988,7 @@
             </a:rPr>
             <a:t>初期包含下列功能：</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+          <a:endParaRPr sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1114,7 +1003,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -1131,7 +1020,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1146,7 +1035,7 @@
             </a:rPr>
             <a:t>字体大小</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+          <a:endParaRPr sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,7 +1050,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -1178,7 +1067,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1193,7 +1082,7 @@
             </a:rPr>
             <a:t>屏幕旋转</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+          <a:endParaRPr sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1208,7 +1097,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -1225,7 +1114,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1240,7 +1129,7 @@
             </a:rPr>
             <a:t>翻页模式</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+          <a:endParaRPr sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1255,7 +1144,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -1272,7 +1161,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1287,7 +1176,7 @@
             </a:rPr>
             <a:t>无图模式</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+          <a:endParaRPr sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1302,7 +1191,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -1319,7 +1208,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1334,7 +1223,7 @@
             </a:rPr>
             <a:t>书签管理</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+          <a:endParaRPr sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,7 +1238,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -1366,7 +1255,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1381,7 +1270,7 @@
             </a:rPr>
             <a:t>下载管理</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+          <a:endParaRPr sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1396,7 +1285,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -1413,7 +1302,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1428,7 +1317,7 @@
             </a:rPr>
             <a:t>亮度调节</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+          <a:endParaRPr sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1443,7 +1332,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -1460,7 +1349,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1475,7 +1364,7 @@
             </a:rPr>
             <a:t>系统消息</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+          <a:endParaRPr sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1490,7 +1379,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -1507,7 +1396,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1522,7 +1411,7 @@
             </a:rPr>
             <a:t>历史记录</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+          <a:endParaRPr sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1537,7 +1426,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -1554,7 +1443,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1569,7 +1458,7 @@
             </a:rPr>
             <a:t>清除记录</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+          <a:endParaRPr sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1584,7 +1473,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -1601,7 +1490,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1616,7 +1505,7 @@
             </a:rPr>
             <a:t>恢复默认</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+          <a:endParaRPr sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1631,7 +1520,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -1648,7 +1537,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -1687,7 +1576,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -1733,7 +1622,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -1776,7 +1665,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -1813,7 +1702,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Shape 6"/>
         <xdr:cNvSpPr/>
@@ -1842,6 +1731,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1866,7 +1756,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -1903,7 +1793,7 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>227478</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Shape 8"/>
         <xdr:cNvSpPr/>
@@ -1931,6 +1821,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1949,7 +1840,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>60176</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="Shape 9"/>
         <xdr:cNvSpPr/>
@@ -1973,7 +1864,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -1983,7 +1874,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -2000,7 +1891,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -2013,56 +1904,11 @@
               <a:cs typeface="宋体"/>
               <a:sym typeface="宋体"/>
             </a:rPr>
-            <a:t>红框以内的整个页面都是网页（</a:t>
+            <a:t>红框以内的整个页面都是网页（webview）</a:t>
           </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
-              <a:sym typeface="宋体"/>
-            </a:rPr>
-            <a:t>webview</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
-              <a:sym typeface="宋体"/>
-            </a:rPr>
-            <a:t>）</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="宋体"/>
-            <a:ea typeface="宋体"/>
-            <a:cs typeface="宋体"/>
-            <a:sym typeface="宋体"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -2078,7 +1924,7 @@
             <a:buNone/>
             <a:tabLst/>
           </a:pPr>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+          <a:endParaRPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2093,7 +1939,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -2110,7 +1956,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -2143,7 +1989,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>16249</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="Shape 10"/>
         <xdr:cNvSpPr/>
@@ -2172,6 +2018,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2196,7 +2043,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -2236,7 +2083,7 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="Shape 12"/>
         <xdr:cNvSpPr/>
@@ -2265,6 +2112,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2289,7 +2137,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -2326,7 +2174,7 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="Shape 14"/>
         <xdr:cNvSpPr/>
@@ -2355,6 +2203,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2373,7 +2222,7 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>54320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="Shape 15"/>
         <xdr:cNvSpPr/>
@@ -2397,7 +2246,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -2407,7 +2256,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -2424,7 +2273,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -2457,7 +2306,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="Shape 16"/>
         <xdr:cNvSpPr/>
@@ -2486,6 +2335,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2510,7 +2360,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -2553,7 +2403,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -2590,7 +2440,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="Shape 19"/>
         <xdr:cNvSpPr/>
@@ -2619,6 +2469,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2637,7 +2488,7 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="Shape 20"/>
         <xdr:cNvSpPr/>
@@ -2666,6 +2517,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2684,7 +2536,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="Shape 21"/>
         <xdr:cNvSpPr/>
@@ -2712,6 +2564,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2730,7 +2583,7 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>125337</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="Shape 22"/>
         <xdr:cNvSpPr/>
@@ -2754,7 +2607,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -2764,7 +2617,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -2781,7 +2634,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -2796,7 +2649,7 @@
             </a:rPr>
             <a:t>这两个页面的内容是网页吗</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+          <a:endParaRPr sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2811,7 +2664,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -2828,7 +2681,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -2844,7 +2697,7 @@
             <a:t>（这是做个参考，可作为浏览器的内置功能页，或者你建议以什么形式比较好）</a:t>
           </a:r>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -2859,7 +2712,7 @@
             </a:rPr>
             <a:t>建议使用网页，因为有短信认证和图片认证，不用内置，服务器那边的工作量会加大</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+          <a:endParaRPr sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2874,7 +2727,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -2891,7 +2744,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -2924,7 +2777,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="Shape 23"/>
         <xdr:cNvSpPr/>
@@ -2953,6 +2806,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2977,7 +2831,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -3014,7 +2868,7 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>125186</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="Shape 25"/>
         <xdr:cNvSpPr/>
@@ -3043,6 +2897,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3067,7 +2922,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -3104,7 +2959,7 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="Shape 27"/>
         <xdr:cNvSpPr/>
@@ -3133,6 +2988,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3157,7 +3013,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -3194,7 +3050,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="Shape 29"/>
         <xdr:cNvSpPr/>
@@ -3223,6 +3079,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3247,7 +3104,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -3284,7 +3141,7 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>84362</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="31" name="Shape 31"/>
         <xdr:cNvSpPr/>
@@ -3313,6 +3170,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3337,7 +3195,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -3374,7 +3232,7 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>35379</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="Shape 33"/>
         <xdr:cNvSpPr/>
@@ -3403,6 +3261,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3427,7 +3286,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -3470,7 +3329,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -3507,7 +3366,7 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>111579</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="36" name="Shape 36"/>
         <xdr:cNvSpPr/>
@@ -3536,6 +3395,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3554,7 +3414,7 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>111578</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="37" name="Shape 37"/>
         <xdr:cNvSpPr/>
@@ -3583,6 +3443,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3607,7 +3468,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -3644,7 +3505,7 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="39" name="Shape 39"/>
         <xdr:cNvSpPr/>
@@ -3673,6 +3534,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3691,7 +3553,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>177641</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="40" name="Shape 40"/>
         <xdr:cNvSpPr/>
@@ -3715,7 +3577,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3725,7 +3587,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3742,7 +3604,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -3775,7 +3637,7 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>12382</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="41" name="Shape 41"/>
         <xdr:cNvSpPr/>
@@ -3799,7 +3661,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -3809,7 +3671,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3826,7 +3688,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -3841,7 +3703,7 @@
             </a:rPr>
             <a:t>请确认这半面设置页面完全参照百度浏览器？</a:t>
           </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+          <a:endParaRPr sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3856,7 +3718,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -3873,7 +3735,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -3906,7 +3768,7 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>16969</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="42" name="Shape 42"/>
         <xdr:cNvSpPr/>
@@ -3934,6 +3796,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3952,7 +3815,7 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>70756</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="43" name="Shape 43"/>
         <xdr:cNvSpPr/>
@@ -3981,6 +3844,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3999,7 +3863,7 @@
       <xdr:row>83</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="44" name="Shape 44"/>
         <xdr:cNvSpPr/>
@@ -4028,6 +3892,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4052,7 +3917,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst/>
         </a:blip>
         <a:stretch>
@@ -4089,7 +3954,7 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="46" name="Shape 46"/>
         <xdr:cNvSpPr/>
@@ -4118,6 +3983,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0"/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4136,7 +4002,7 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="47" name="Shape 47"/>
         <xdr:cNvSpPr/>
@@ -4160,7 +4026,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4170,7 +4036,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4187,7 +4053,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -4220,7 +4086,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>80067</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="48" name="Shape 48"/>
         <xdr:cNvSpPr/>
@@ -4244,7 +4110,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4254,7 +4120,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4271,7 +4137,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -4284,23 +4150,7 @@
               <a:cs typeface="宋体"/>
               <a:sym typeface="宋体"/>
             </a:rPr>
-            <a:t>图 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
-              <a:sym typeface="宋体"/>
-            </a:rPr>
-            <a:t>1</a:t>
+            <a:t>图 1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4320,7 +4170,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>151167</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="49" name="Shape 49"/>
         <xdr:cNvSpPr/>
@@ -4344,7 +4194,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4354,7 +4204,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4371,7 +4221,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -4384,23 +4234,7 @@
               <a:cs typeface="宋体"/>
               <a:sym typeface="宋体"/>
             </a:rPr>
-            <a:t>图 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
-              <a:sym typeface="宋体"/>
-            </a:rPr>
-            <a:t>2</a:t>
+            <a:t>图 2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4420,7 +4254,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>173074</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="50" name="Shape 50"/>
         <xdr:cNvSpPr/>
@@ -4444,7 +4278,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4454,7 +4288,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4471,7 +4305,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -4484,23 +4318,7 @@
               <a:cs typeface="宋体"/>
               <a:sym typeface="宋体"/>
             </a:rPr>
-            <a:t>图 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
-              <a:sym typeface="宋体"/>
-            </a:rPr>
-            <a:t>3</a:t>
+            <a:t>图 3</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4520,7 +4338,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>35242</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="51" name="Shape 51"/>
         <xdr:cNvSpPr/>
@@ -4544,7 +4362,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4554,7 +4372,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4571,7 +4389,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -4584,23 +4402,7 @@
               <a:cs typeface="宋体"/>
               <a:sym typeface="宋体"/>
             </a:rPr>
-            <a:t>图 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
-              <a:sym typeface="宋体"/>
-            </a:rPr>
-            <a:t>4</a:t>
+            <a:t>图 4</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4620,7 +4422,7 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>22915</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="52" name="Shape 52"/>
         <xdr:cNvSpPr/>
@@ -4644,7 +4446,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4654,7 +4456,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4671,7 +4473,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -4684,23 +4486,7 @@
               <a:cs typeface="宋体"/>
               <a:sym typeface="宋体"/>
             </a:rPr>
-            <a:t>图 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
-              <a:sym typeface="宋体"/>
-            </a:rPr>
-            <a:t>5</a:t>
+            <a:t>图 5</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4720,7 +4506,7 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>227366</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="53" name="Shape 53"/>
         <xdr:cNvSpPr/>
@@ -4744,7 +4530,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" val="1"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -4754,7 +4540,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" marL="0" marR="0" indent="0" algn="l" defTabSz="914400">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400">
             <a:lnSpc>
               <a:spcPct val="100000"/>
             </a:lnSpc>
@@ -4771,7 +4557,7 @@
             <a:tabLst/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
+            <a:rPr sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" baseline="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -4784,23 +4570,7 @@
               <a:cs typeface="宋体"/>
               <a:sym typeface="宋体"/>
             </a:rPr>
-            <a:t>图 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="宋体"/>
-              <a:ea typeface="宋体"/>
-              <a:cs typeface="宋体"/>
-              <a:sym typeface="宋体"/>
-            </a:rPr>
-            <a:t>6</a:t>
+            <a:t>图 6</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4811,7 +4581,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -5003,7 +4773,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -5012,7 +4782,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -5021,7 +4791,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -5030,7 +4800,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -5039,7 +4809,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5048,7 +4818,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5160,8 +4930,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -5169,14 +4939,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -5195,7 +4965,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5203,7 +4973,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -5231,7 +5001,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5257,7 +5027,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5283,7 +5053,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5309,7 +5079,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5335,7 +5105,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5361,7 +5131,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5387,7 +5157,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5413,7 +5183,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5439,7 +5209,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5452,9 +5222,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -5470,7 +5246,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -5489,7 +5265,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5515,7 +5291,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5541,7 +5317,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5567,7 +5343,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5593,7 +5369,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5619,7 +5395,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5645,7 +5421,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5671,7 +5447,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5697,7 +5473,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5723,7 +5499,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5736,9 +5512,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -5751,7 +5533,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -5770,7 +5552,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5800,7 +5582,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5826,7 +5608,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5852,7 +5634,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5878,7 +5660,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5904,7 +5686,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5930,7 +5712,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5956,7 +5738,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5982,7 +5764,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6008,7 +5790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -6021,344 +5803,308 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IV35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="1" customWidth="1"/>
-    <col min="6" max="256" width="7.625" style="1" customWidth="1"/>
+    <col min="1" max="256" width="7.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
+    <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="18" customHeight="1">
+    <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="18" customHeight="1">
+    <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="18" customHeight="1">
+    <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="18" customHeight="1">
+    <row r="6" spans="1:5" ht="18" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="18" customHeight="1">
+    <row r="7" spans="1:5" ht="18" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="18" customHeight="1">
+    <row r="8" spans="1:5" ht="18" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="18" customHeight="1">
+    <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="18" customHeight="1">
+    <row r="10" spans="1:5" ht="18" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" ht="18" customHeight="1">
+    <row r="11" spans="1:5" ht="18" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" ht="18" customHeight="1">
+    <row r="12" spans="1:5" ht="18" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" ht="18" customHeight="1">
+    <row r="13" spans="1:5" ht="18" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" ht="18" customHeight="1">
+    <row r="14" spans="1:5" ht="18" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" ht="18" customHeight="1">
+    <row r="15" spans="1:5" ht="18" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" ht="18" customHeight="1">
+    <row r="16" spans="1:5" ht="18" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" ht="18" customHeight="1">
+    <row r="17" spans="1:5" ht="18" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" ht="18" customHeight="1">
+    <row r="18" spans="1:5" ht="18" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" ht="18" customHeight="1">
+    <row r="19" spans="1:5" ht="18" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" ht="18" customHeight="1">
+    <row r="20" spans="1:5" ht="18" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" ht="18" customHeight="1">
+    <row r="21" spans="1:5" ht="18" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" ht="18" customHeight="1">
+    <row r="22" spans="1:5" ht="18" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" ht="18" customHeight="1">
+    <row r="23" spans="1:5" ht="18" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" ht="18" customHeight="1">
+    <row r="24" spans="1:5" ht="18" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" ht="18" customHeight="1">
+    <row r="25" spans="1:5" ht="18" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" ht="18" customHeight="1">
+    <row r="26" spans="1:5" ht="18" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" ht="18" customHeight="1">
+    <row r="27" spans="1:5" ht="18" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" ht="18" customHeight="1">
+    <row r="28" spans="1:5" ht="18" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" ht="18" customHeight="1">
+    <row r="29" spans="1:5" ht="18" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" ht="18" customHeight="1">
+    <row r="30" spans="1:5" ht="18" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" ht="18" customHeight="1">
+    <row r="31" spans="1:5" ht="18" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" ht="18" customHeight="1">
+    <row r="32" spans="1:5" ht="18" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" ht="18" customHeight="1">
+    <row r="33" spans="1:5" ht="18" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" ht="18" customHeight="1">
+    <row r="34" spans="1:5" ht="18" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" ht="18" customHeight="1">
+    <row r="35" spans="1:5" ht="18" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" t="s" s="3">
+      <c r="C35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="7.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="7.625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="7.625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9.25" style="4" customWidth="1"/>
-    <col min="16" max="16" width="9.25" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.25" style="4" customWidth="1"/>
-    <col min="18" max="18" width="9.25" style="4" customWidth="1"/>
-    <col min="19" max="19" width="9.25" style="4" customWidth="1"/>
-    <col min="20" max="20" width="9.25" style="4" customWidth="1"/>
-    <col min="21" max="21" width="9.25" style="4" customWidth="1"/>
-    <col min="22" max="22" width="9.25" style="4" customWidth="1"/>
-    <col min="23" max="23" width="9.25" style="4" customWidth="1"/>
-    <col min="24" max="24" width="9.25" style="4" customWidth="1"/>
-    <col min="25" max="25" width="9.25" style="4" customWidth="1"/>
-    <col min="26" max="26" width="9.25" style="4" customWidth="1"/>
-    <col min="27" max="27" width="9.25" style="4" customWidth="1"/>
-    <col min="28" max="28" width="9.25" style="4" customWidth="1"/>
-    <col min="29" max="29" width="9.25" style="4" customWidth="1"/>
-    <col min="30" max="30" width="9.25" style="4" customWidth="1"/>
-    <col min="31" max="31" width="9.25" style="4" customWidth="1"/>
-    <col min="32" max="32" width="9.25" style="4" customWidth="1"/>
-    <col min="33" max="33" width="9.25" style="4" customWidth="1"/>
-    <col min="34" max="34" width="7.625" style="4" customWidth="1"/>
-    <col min="35" max="35" width="7.625" style="4" customWidth="1"/>
-    <col min="36" max="36" width="7.625" style="4" customWidth="1"/>
-    <col min="37" max="37" width="7.625" style="4" customWidth="1"/>
-    <col min="38" max="38" width="7.625" style="4" customWidth="1"/>
-    <col min="39" max="39" width="7.625" style="4" customWidth="1"/>
-    <col min="40" max="40" width="7.625" style="4" customWidth="1"/>
-    <col min="41" max="41" width="7.625" style="4" customWidth="1"/>
-    <col min="42" max="42" width="7.625" style="4" customWidth="1"/>
-    <col min="43" max="256" width="7.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="26.69921875" style="4" customWidth="1"/>
+    <col min="2" max="5" width="9.19921875" style="4" customWidth="1"/>
+    <col min="6" max="14" width="7.59765625" style="4" customWidth="1"/>
+    <col min="15" max="33" width="9.19921875" style="4" customWidth="1"/>
+    <col min="34" max="256" width="7.59765625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47.25" customHeight="1">
+    <row r="1" spans="1:42" ht="47.25" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="6">
         <v>42032</v>
@@ -6484,8 +6230,8 @@
         <v>42072</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="s" s="8">
+    <row r="2" spans="1:42" ht="18" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9"/>
@@ -6530,8 +6276,8 @@
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
     </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:42" ht="18" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="12"/>
@@ -6539,11 +6285,11 @@
       <c r="D3" s="13"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
-      <c r="G3" t="s" s="14">
+      <c r="G3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -6578,15 +6324,15 @@
       <c r="AO3" s="2"/>
       <c r="AP3" s="2"/>
     </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" t="s" s="8">
+    <row r="4" spans="1:42" ht="18" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="11"/>
@@ -6624,21 +6370,21 @@
       <c r="AO4" s="2"/>
       <c r="AP4" s="2"/>
     </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:42" ht="18" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="20"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="16"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -6670,22 +6416,22 @@
       <c r="AO5" s="2"/>
       <c r="AP5" s="2"/>
     </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" t="s" s="8">
+    <row r="6" spans="1:42" ht="18" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" t="s" s="22">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="23"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -6718,19 +6464,19 @@
       <c r="AO6" s="2"/>
       <c r="AP6" s="2"/>
     </row>
-    <row r="7" ht="94.5" customHeight="1">
-      <c r="A7" t="s" s="24">
+    <row r="7" spans="1:42" ht="94.5" customHeight="1">
+      <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -6764,18 +6510,18 @@
       <c r="AO7" s="2"/>
       <c r="AP7" s="2"/>
     </row>
-    <row r="8" ht="54" customHeight="1">
-      <c r="A8" t="s" s="26">
+    <row r="8" spans="1:42" ht="54" customHeight="1">
+      <c r="A8" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="28"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
@@ -6810,35 +6556,35 @@
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
     </row>
-    <row r="9" ht="53" customHeight="1">
-      <c r="A9" t="s" s="3">
+    <row r="9" spans="1:42" ht="53.1" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="10"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="27"/>
-      <c r="P9" t="s" s="22">
+      <c r="O9" s="25"/>
+      <c r="P9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" t="s" s="22">
+      <c r="Q9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="16"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="14"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
@@ -6860,8 +6606,8 @@
       <c r="AO9" s="2"/>
       <c r="AP9" s="2"/>
     </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" t="s" s="3">
+    <row r="10" spans="1:42" ht="18" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2"/>
@@ -6871,19 +6617,19 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
       <c r="O10" s="10"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="19"/>
+      <c r="U10" s="17"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -6906,8 +6652,8 @@
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
     </row>
-    <row r="11" ht="53" customHeight="1">
-      <c r="A11" t="s" s="3">
+    <row r="11" spans="1:42" ht="53.1" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2"/>
@@ -6918,20 +6664,20 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="25"/>
-      <c r="O11" t="s" s="30">
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="16"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="14"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
@@ -6954,8 +6700,8 @@
       <c r="AO11" s="2"/>
       <c r="AP11" s="2"/>
     </row>
-    <row r="12" ht="18" customHeight="1">
-      <c r="A12" t="s" s="3">
+    <row r="12" spans="1:42" ht="18" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2"/>
@@ -6970,8 +6716,8 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="27"/>
-      <c r="O12" t="s" s="31">
+      <c r="N12" s="25"/>
+      <c r="O12" s="29" t="s">
         <v>15</v>
       </c>
       <c r="P12" s="9"/>
@@ -6979,7 +6725,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="16"/>
+      <c r="U12" s="14"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
@@ -7002,8 +6748,8 @@
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
     </row>
-    <row r="13" ht="18" customHeight="1">
-      <c r="A13" t="s" s="3">
+    <row r="13" spans="1:42" ht="18" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="2"/>
@@ -7019,12 +6765,12 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
@@ -7035,23 +6781,23 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="32"/>
-      <c r="AG13" s="32"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" t="s" s="33">
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="32"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
       <c r="AO13" s="2"/>
       <c r="AP13" s="2"/>
     </row>
-    <row r="14" ht="18" customHeight="1">
-      <c r="A14" t="s" s="3">
+    <row r="14" spans="1:42" ht="18" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="2"/>
@@ -7096,8 +6842,8 @@
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
     </row>
-    <row r="15" ht="18" customHeight="1">
-      <c r="A15" t="s" s="3">
+    <row r="15" spans="1:42" ht="18" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="2"/>
@@ -7142,8 +6888,8 @@
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
     </row>
-    <row r="16" ht="18" customHeight="1">
-      <c r="A16" t="s" s="3">
+    <row r="16" spans="1:42" ht="18" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2"/>
@@ -7188,7 +6934,7 @@
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
     </row>
-    <row r="17" ht="18" customHeight="1">
+    <row r="17" spans="1:42" ht="18" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -7232,7 +6978,7 @@
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
     </row>
-    <row r="18" ht="18" customHeight="1">
+    <row r="18" spans="1:42" ht="18" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -7276,7 +7022,7 @@
       <c r="AO18" s="2"/>
       <c r="AP18" s="2"/>
     </row>
-    <row r="19" ht="18" customHeight="1">
+    <row r="19" spans="1:42" ht="18" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -7320,7 +7066,7 @@
       <c r="AO19" s="2"/>
       <c r="AP19" s="2"/>
     </row>
-    <row r="20" ht="18" customHeight="1">
+    <row r="20" spans="1:42" ht="18" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -7364,17 +7110,17 @@
       <c r="AO20" s="2"/>
       <c r="AP20" s="2"/>
     </row>
-    <row r="21" ht="18" customHeight="1">
-      <c r="A21" t="s" s="34">
+    <row r="21" spans="1:42" ht="18" customHeight="1">
+      <c r="A21" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -7410,15 +7156,15 @@
       <c r="AO21" s="2"/>
       <c r="AP21" s="2"/>
     </row>
-    <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+    <row r="22" spans="1:42" ht="18" customHeight="1">
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -7454,15 +7200,15 @@
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
     </row>
-    <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+    <row r="23" spans="1:42" ht="18" customHeight="1">
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -7498,15 +7244,15 @@
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
     </row>
-    <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+    <row r="24" spans="1:42" ht="18" customHeight="1">
+      <c r="A24" s="52"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -7542,15 +7288,15 @@
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
     </row>
-    <row r="25" ht="18" customHeight="1">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+    <row r="25" spans="1:42" ht="18" customHeight="1">
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -7586,15 +7332,15 @@
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
     </row>
-    <row r="26" ht="18" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+    <row r="26" spans="1:42" ht="18" customHeight="1">
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -7630,15 +7376,15 @@
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
     </row>
-    <row r="27" ht="18" customHeight="1">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+    <row r="27" spans="1:42" ht="18" customHeight="1">
+      <c r="A27" s="52"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -7674,15 +7420,15 @@
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
     </row>
-    <row r="28" ht="18" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
+    <row r="28" spans="1:42" ht="18" customHeight="1">
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -7723,11 +7469,12 @@
     <mergeCell ref="A21:H28"/>
     <mergeCell ref="G3:H3"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="A9" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -7735,41 +7482,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:IV34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="61.1016" style="36" customWidth="1"/>
-    <col min="2" max="2" width="28.3203" style="36" customWidth="1"/>
-    <col min="3" max="3" width="14.4688" style="36" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="36" customWidth="1"/>
-    <col min="8" max="8" width="7.625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="36" customWidth="1"/>
-    <col min="10" max="10" width="7.625" style="36" customWidth="1"/>
-    <col min="11" max="11" width="7.625" style="36" customWidth="1"/>
-    <col min="12" max="256" width="7.625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="61.09765625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="28.296875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="32" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" style="32" customWidth="1"/>
+    <col min="5" max="256" width="7.59765625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1">
-      <c r="A1" t="s" s="37">
+    <row r="1" spans="1:11" ht="24" customHeight="1">
+      <c r="A1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s" s="38">
+      <c r="B1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s" s="39">
+      <c r="C1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="2"/>
@@ -7779,17 +7521,17 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" t="s" s="22">
+    <row r="2" spans="1:11" ht="18" customHeight="1">
+      <c r="A2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s" s="40">
+      <c r="B2" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="37">
         <v>0.8</v>
       </c>
       <c r="E2" s="2"/>
@@ -7800,20 +7542,20 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="s" s="31">
+    <row r="3" spans="1:11" ht="18" customHeight="1">
+      <c r="A3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s" s="40">
+      <c r="B3" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="37">
         <v>1</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="2"/>
@@ -7823,20 +7565,20 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" t="s" s="42">
+    <row r="4" spans="1:11" ht="18" customHeight="1">
+      <c r="A4" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s" s="40">
+      <c r="B4" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="37">
         <v>1</v>
       </c>
-      <c r="E4" t="s" s="3">
+      <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="2"/>
@@ -7846,20 +7588,20 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" t="s" s="22">
+    <row r="5" spans="1:11" ht="18" customHeight="1">
+      <c r="A5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s" s="40">
+      <c r="B5" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="37">
         <v>0.5</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="2"/>
@@ -7869,20 +7611,20 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" t="s" s="31">
+    <row r="6" spans="1:11" ht="18" customHeight="1">
+      <c r="A6" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s" s="40">
+      <c r="B6" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" t="s" s="3">
+      <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s" s="3">
+      <c r="E6" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="2"/>
@@ -7892,20 +7634,20 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" t="s" s="22">
+    <row r="7" spans="1:11" ht="18" customHeight="1">
+      <c r="A7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s" s="40">
+      <c r="B7" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="37">
         <v>1</v>
       </c>
-      <c r="E7" t="s" s="3">
+      <c r="E7" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="2"/>
@@ -7915,17 +7657,17 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" t="s" s="30">
+    <row r="8" spans="1:11" ht="18" customHeight="1">
+      <c r="A8" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B8" t="s" s="40">
+      <c r="B8" s="36" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="37">
         <v>0</v>
       </c>
       <c r="E8" s="2"/>
@@ -7936,20 +7678,20 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" t="s" s="22">
+    <row r="9" spans="1:11" ht="18" customHeight="1">
+      <c r="A9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s" s="40">
+      <c r="B9" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="37">
         <v>0.6</v>
       </c>
-      <c r="E9" t="s" s="3">
+      <c r="E9" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="2"/>
@@ -7959,20 +7701,20 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" t="s" s="30">
+    <row r="10" spans="1:11" ht="18" customHeight="1">
+      <c r="A10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s" s="40">
+      <c r="B10" s="36" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="37">
         <v>0.2</v>
       </c>
-      <c r="E10" t="s" s="3">
+      <c r="E10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="2"/>
@@ -7982,20 +7724,20 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" t="s" s="30">
+    <row r="11" spans="1:11" ht="18" customHeight="1">
+      <c r="A11" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="s" s="40">
+      <c r="B11" s="36" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="37">
         <v>0</v>
       </c>
-      <c r="E11" t="s" s="3">
+      <c r="E11" s="3" t="s">
         <v>48</v>
       </c>
       <c r="F11" s="2"/>
@@ -8005,20 +7747,20 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" ht="18" customHeight="1">
-      <c r="A12" t="s" s="30">
+    <row r="12" spans="1:11" ht="18" customHeight="1">
+      <c r="A12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s" s="40">
+      <c r="B12" s="36" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="37">
         <v>0.9</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" s="3" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="2"/>
@@ -8028,20 +7770,20 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" ht="18" customHeight="1">
-      <c r="A13" t="s" s="22">
+    <row r="13" spans="1:11" ht="18" customHeight="1">
+      <c r="A13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B13" t="s" s="40">
+      <c r="B13" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="37">
         <v>0.9</v>
       </c>
-      <c r="E13" t="s" s="3">
+      <c r="E13" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F13" s="2"/>
@@ -8051,17 +7793,17 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" ht="21" customHeight="1">
-      <c r="A14" t="s" s="22">
+    <row r="14" spans="1:11" ht="21" customHeight="1">
+      <c r="A14" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s" s="40">
+      <c r="B14" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="37">
         <v>1</v>
       </c>
       <c r="E14" s="2"/>
@@ -8072,20 +7814,20 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" ht="18" customHeight="1">
-      <c r="A15" t="s" s="30">
+    <row r="15" spans="1:11" ht="18" customHeight="1">
+      <c r="A15" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B15" t="s" s="40">
+      <c r="B15" s="36" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="37">
         <v>0.5</v>
       </c>
-      <c r="E15" t="s" s="3">
+      <c r="E15" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F15" s="2"/>
@@ -8095,20 +7837,20 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" ht="18" customHeight="1">
-      <c r="A16" t="s" s="30">
+    <row r="16" spans="1:11" ht="18" customHeight="1">
+      <c r="A16" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B16" t="s" s="40">
+      <c r="B16" s="36" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="37">
         <v>0</v>
       </c>
-      <c r="E16" t="s" s="3">
+      <c r="E16" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="2"/>
@@ -8118,17 +7860,17 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" ht="18" customHeight="1">
-      <c r="A17" t="s" s="31">
+    <row r="17" spans="1:11" ht="18" customHeight="1">
+      <c r="A17" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B17" t="s" s="40">
+      <c r="B17" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="37">
         <v>0.4</v>
       </c>
       <c r="E17" s="2"/>
@@ -8139,11 +7881,11 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" ht="18" customHeight="1">
-      <c r="A18" t="s" s="43">
+    <row r="18" spans="1:11" ht="18" customHeight="1">
+      <c r="A18" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B18" t="s" s="3">
+      <c r="B18" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="2"/>
@@ -8156,11 +7898,11 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" ht="18" customHeight="1">
-      <c r="A19" t="s" s="44">
+    <row r="19" spans="1:11" ht="18" customHeight="1">
+      <c r="A19" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="B19" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="2"/>
@@ -8173,7 +7915,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" ht="18" customHeight="1">
+    <row r="20" spans="1:11" ht="18" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8186,11 +7928,11 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" ht="18" customHeight="1">
-      <c r="A21" t="s" s="45">
+    <row r="21" spans="1:11" ht="18" customHeight="1">
+      <c r="A21" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B21" t="s" s="3">
+      <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="2"/>
@@ -8203,11 +7945,11 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" ht="18" customHeight="1">
-      <c r="A22" t="s" s="46">
+    <row r="22" spans="1:11" ht="18" customHeight="1">
+      <c r="A22" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B22" t="s" s="3">
+      <c r="B22" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="2"/>
@@ -8220,11 +7962,11 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" ht="18" customHeight="1">
-      <c r="A23" t="s" s="47">
+    <row r="23" spans="1:11" ht="18" customHeight="1">
+      <c r="A23" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B23" t="s" s="3">
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="2"/>
@@ -8237,11 +7979,11 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" ht="18" customHeight="1">
-      <c r="A24" t="s" s="48">
+    <row r="24" spans="1:11" ht="18" customHeight="1">
+      <c r="A24" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="2"/>
@@ -8254,7 +7996,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" ht="18" customHeight="1">
+    <row r="25" spans="1:11" ht="18" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8267,7 +8009,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" ht="18" customHeight="1">
+    <row r="26" spans="1:11" ht="18" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8280,7 +8022,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" ht="18" customHeight="1">
+    <row r="27" spans="1:11" ht="18" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8293,7 +8035,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" ht="18" customHeight="1">
+    <row r="28" spans="1:11" ht="18" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8306,7 +8048,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" ht="18" customHeight="1">
+    <row r="29" spans="1:11" ht="18" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -8319,7 +8061,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" ht="18" customHeight="1">
+    <row r="30" spans="1:11" ht="18" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -8332,7 +8074,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" ht="18" customHeight="1">
+    <row r="31" spans="1:11" ht="18" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -8345,7 +8087,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" ht="18" customHeight="1">
+    <row r="32" spans="1:11" ht="18" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -8358,7 +8100,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" ht="18" customHeight="1">
+    <row r="33" spans="1:11" ht="18" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8371,7 +8113,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" ht="18" customHeight="1">
+    <row r="34" spans="1:11" ht="18" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8385,11 +8127,12 @@
       <c r="K34" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="A14" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -8397,113 +8140,112 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:F11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.19921875" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.25" style="49" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="49" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="49" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="49" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="49" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="49" customWidth="1"/>
-    <col min="7" max="256" width="12.25" style="49" customWidth="1"/>
+    <col min="1" max="1" width="0.19921875" style="45" customWidth="1"/>
+    <col min="2" max="256" width="12.19921875" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="2" customHeight="1"/>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-    </row>
-    <row r="3" ht="40.55" customHeight="1">
-      <c r="B3" t="s" s="51">
+    <row r="1" spans="2:6" ht="2.1" customHeight="1"/>
+    <row r="2" spans="2:6" ht="20.65" customHeight="1">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+    </row>
+    <row r="3" spans="2:6" ht="40.5" customHeight="1">
+      <c r="B3" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-    </row>
-    <row r="4" ht="28.05" customHeight="1">
-      <c r="B4" t="s" s="51">
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="2:6" ht="28.15" customHeight="1">
+      <c r="B4" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-    </row>
-    <row r="5" ht="28.05" customHeight="1">
-      <c r="B5" t="s" s="51">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+    </row>
+    <row r="5" spans="2:6" ht="28.15" customHeight="1">
+      <c r="B5" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-    </row>
-    <row r="6" ht="58.05" customHeight="1">
-      <c r="B6" t="s" s="51">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+    </row>
+    <row r="6" spans="2:6" ht="58.15" customHeight="1">
+      <c r="B6" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-    </row>
-    <row r="7" ht="58.05" customHeight="1">
-      <c r="B7" t="s" s="51">
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+    </row>
+    <row r="7" spans="2:6" ht="58.15" customHeight="1">
+      <c r="B7" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="B8" t="s" s="51">
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+    </row>
+    <row r="8" spans="2:6" ht="20.45" customHeight="1">
+      <c r="B8" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="B9" s="54"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="B10" s="54"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="B11" s="54"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+    </row>
+    <row r="9" spans="2:6" ht="20.45" customHeight="1">
+      <c r="B9" s="50"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+    </row>
+    <row r="10" spans="2:6" ht="20.45" customHeight="1">
+      <c r="B10" s="50"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+    </row>
+    <row r="11" spans="2:6" ht="20.45" customHeight="1">
+      <c r="B11" s="50"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/doc/work flow.xlsx
+++ b/doc/work flow.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370" activeTab="2"/>
+    <workbookView xWindow="3440" yWindow="1880" windowWidth="43020" windowHeight="18120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UI Flow" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,17 @@
     <sheet name="bugliza" sheetId="3" r:id="rId3"/>
     <sheet name="开发要求" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -269,13 +274,7 @@
     <t>按返回键直至退出程序前会有一个空白页，要求没有空白页，直接退出程序</t>
   </si>
   <si>
-    <t>gupeng</t>
-  </si>
-  <si>
     <t>二维码扫描后能挑到主界面把扫描到的网址显示出来</t>
-  </si>
-  <si>
-    <t>caoanyang</t>
   </si>
   <si>
     <t>添加书签的对话框去掉黑色背景框</t>
@@ -307,18 +306,24 @@
   <si>
     <t>每天更新trello</t>
   </si>
+  <si>
+    <t>zhangjian</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡莹莹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangjian、胡莹莹</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -365,15 +370,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <u/>
+      <sz val="11"/>
+      <color indexed="14"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="14"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <name val="Verdana"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -633,24 +638,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="52">
@@ -756,12 +746,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -789,12 +773,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -810,15 +788,24 @@
     <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+  <cellStyles count="1">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -891,7 +878,3898 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="Shape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4711700" y="15925800"/>
+          <a:ext cx="3771900" cy="3467100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>请确认设置界面的内容参考百度、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>UC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>QQ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>浏览器，一些功能是他们的特色功能我们暂时无法实现，下面列出常用功能</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>初期包含下列功能：</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>字体大小</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>屏幕旋转</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>翻页模式</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>无图模式</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>书签管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>下载管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>亮度调节</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>系统消息</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>历史记录</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>清除记录</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>恢复默认</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>关于</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="image1.png" descr="rId1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13004800" y="7061200"/>
+          <a:ext cx="3670300" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="image2.jpg" descr="浏览器"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7086600" y="622300"/>
+          <a:ext cx="3746500" cy="5511800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="image3.png" descr="rId3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10680700" y="850900"/>
+          <a:ext cx="304800" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1029" name="Shape 6"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="10528300" y="812800"/>
+          <a:ext cx="7683500" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="image4.png" descr="rId4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18199100" y="381000"/>
+          <a:ext cx="2794000" cy="3517900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1031" name="Shape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7023100" y="1066800"/>
+          <a:ext cx="3822700" cy="4648200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1032" name="Shape 9"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11379200" y="1371600"/>
+          <a:ext cx="4114800" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>红框以内的整个页面都是网页（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>webview</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>（用服务器页面拿更新内容较方便，但手机流量会大些，浏览器和主页可以分开开发设计。用内置页节省流量，但需要设计开发后台接口提供数据，浏览器开发和主页后台开发要进行工作对接）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1033" name="Shape 10"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10833100" y="2019300"/>
+          <a:ext cx="546100" cy="50800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1034" name="image5.png" descr="rId5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9296400" y="7086600"/>
+          <a:ext cx="3670300" cy="1244600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1035" name="Shape 12"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="10325100" y="5943600"/>
+          <a:ext cx="50800" cy="1231900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1036" name="image6.png" descr="rId6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17564100" y="4127500"/>
+          <a:ext cx="3200400" cy="4038600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1037" name="Shape 14"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10261600" y="3263900"/>
+          <a:ext cx="7467600" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1038" name="Shape 15"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12077700" y="3886200"/>
+          <a:ext cx="2235200" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>直接跳转到链接页面）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1039" name="Shape 16"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9385300" y="3327400"/>
+          <a:ext cx="2819400" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1040" name="image7.png" descr="rId7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3594100" y="838200"/>
+          <a:ext cx="2603500" cy="3276600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1041" name="image8.png" descr="rId8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="241300" y="1651000"/>
+          <a:ext cx="2628900" cy="3327400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1042" name="Shape 19"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="6083300" y="838200"/>
+          <a:ext cx="4762500" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1043" name="Shape 20"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="2400300" y="1308100"/>
+          <a:ext cx="3505200" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1044" name="Shape 21"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="25400" y="685800"/>
+          <a:ext cx="6337300" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1045" name="Shape 22"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2870200" y="5486400"/>
+          <a:ext cx="2552700" cy="1536700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>这两个页面的内容是网页吗</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>（这是做个参考，可作为浏览器的内置功能页，或者你建议以什么形式比较好）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+              <a:cs typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>建议使用网页，因为有短信认证和图片认证，不用内置，服务器那边的工作量会加大</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>可以使用网页形式登录</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1046" name="Shape 23"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4038600" y="5016500"/>
+          <a:ext cx="393700" cy="927100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1047" name="image9.png" descr="rId9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8940800" y="11785600"/>
+          <a:ext cx="2628900" cy="3149600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1048" name="Shape 25"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="10071100" y="7924800"/>
+          <a:ext cx="1549400" cy="4038600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1049" name="image10.png" descr="rId10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5918200" y="11887200"/>
+          <a:ext cx="2603500" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1050" name="Shape 27"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="7937500" y="7924800"/>
+          <a:ext cx="1841500" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1051" name="image11.png" descr="rId11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12077700" y="4406900"/>
+          <a:ext cx="3302000" cy="1689100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1052" name="Shape 29"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10541000" y="3886200"/>
+          <a:ext cx="1727200" cy="1282700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1053" name="image12.png" descr="rId12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12395200" y="11582400"/>
+          <a:ext cx="2654300" cy="3251200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1054" name="Shape 31"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10718800" y="7950200"/>
+          <a:ext cx="2082800" cy="3784600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1055" name="image13.png" descr="rId13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2578100" y="12077700"/>
+          <a:ext cx="2705100" cy="3251200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1056" name="Shape 33"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10655300" y="7315200"/>
+          <a:ext cx="5448300" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1057" name="image14.png" descr="rId14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19646900" y="11366500"/>
+          <a:ext cx="2628900" cy="3162300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1058" name="image15.png" descr="rId15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15836900" y="11747500"/>
+          <a:ext cx="2641600" cy="3187700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1059" name="Shape 36"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11607800" y="7315200"/>
+          <a:ext cx="8280400" cy="4292600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1060" name="Shape 37"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4965700" y="7315200"/>
+          <a:ext cx="4787900" cy="4953000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1061" name="image16.png" descr="rId16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5422900" y="6350000"/>
+          <a:ext cx="3327400" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1062" name="Shape 39"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="8483600" y="5943600"/>
+          <a:ext cx="1130300" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1063" name="Shape 40"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5461000" y="7632700"/>
+          <a:ext cx="2743200" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>搜狗浏览器多页样式（参考）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1064" name="Shape 41"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16903700" y="8775700"/>
+          <a:ext cx="3238500" cy="1054100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>请确认这半面设置页面完全参照百度浏览器？</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Verdana"/>
+            <a:ea typeface="Verdana"/>
+            <a:cs typeface="Verdana"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>（我的视频、工具箱 省流加速功能目前不要，需要那些功能在前面的修订说明邮件里已经列出）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1065" name="Shape 42"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12814300" y="6921500"/>
+          <a:ext cx="3937000" cy="1587500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1066" name="Shape 43"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15646400" y="8458200"/>
+          <a:ext cx="1574800" cy="1117600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1067" name="Shape 44"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="7162800" y="15062200"/>
+          <a:ext cx="12700" cy="901700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1068" name="image17.png" descr="rId17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="749300" y="7124700"/>
+          <a:ext cx="2349500" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1069" name="Shape 46"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="3098800" y="7670800"/>
+          <a:ext cx="2057400" cy="1320800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:bevel/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1070" name="Shape 47"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3403600" y="8991600"/>
+          <a:ext cx="2095500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>百度浏览器多页样式（参考）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1071" name="Shape 48"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7175500" y="254000"/>
+          <a:ext cx="571500" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>图 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1072" name="Shape 49"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="139700" y="342900"/>
+          <a:ext cx="622300" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>图 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1073" name="Shape 50"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17526000" y="381000"/>
+          <a:ext cx="482600" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>图 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1074" name="Shape 51"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17043400" y="4343400"/>
+          <a:ext cx="508000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>图 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1075" name="Shape 52"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12395200" y="6629400"/>
+          <a:ext cx="495300" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>图 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1076" name="Shape 53"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="774700" y="6845300"/>
+          <a:ext cx="533400" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="385D8A"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>图 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="宋体"/>
+              <a:ea typeface="宋体"/>
+              <a:cs typeface="宋体"/>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1189,6 +5067,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1225,6 +5104,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1243,258 +5123,255 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.62666666666667" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="256" width="7.62666666666667" style="7" customWidth="1"/>
+    <col min="1" max="256" width="7.625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="18" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="18" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="18" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" ht="18" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="18" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="18" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="18" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" ht="18" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" ht="18" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" ht="18" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" ht="18" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" ht="18" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" ht="18" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" ht="18" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" ht="18" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:5">
+    <row r="16" spans="1:5" ht="18" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" ht="18" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" ht="18" customHeight="1" spans="1:5">
+    <row r="18" spans="1:5" ht="18" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" ht="18" customHeight="1" spans="1:5">
+    <row r="19" spans="1:5" ht="18" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" ht="18" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" ht="18" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" ht="18" customHeight="1" spans="1:5">
+    <row r="21" spans="1:5" ht="18" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" ht="18" customHeight="1" spans="1:5">
+    <row r="22" spans="1:5" ht="18" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" ht="18" customHeight="1" spans="1:5">
+    <row r="23" spans="1:5" ht="18" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" ht="18" customHeight="1" spans="1:5">
+    <row r="24" spans="1:5" ht="18" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:5">
+    <row r="25" spans="1:5" ht="18" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" ht="18" customHeight="1" spans="1:5">
+    <row r="26" spans="1:5" ht="18" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" ht="18" customHeight="1" spans="1:5">
+    <row r="27" spans="1:5" ht="18" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" ht="18" customHeight="1" spans="1:5">
+    <row r="28" spans="1:5" ht="18" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" ht="18" customHeight="1" spans="1:5">
+    <row r="29" spans="1:5" ht="18" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" ht="18" customHeight="1" spans="1:5">
+    <row r="30" spans="1:5" ht="18" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
     </row>
-    <row r="31" ht="18" customHeight="1" spans="1:5">
+    <row r="31" spans="1:5" ht="18" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" ht="18" customHeight="1" spans="1:5">
+    <row r="32" spans="1:5" ht="18" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" ht="18" customHeight="1" spans="1:5">
+    <row r="33" spans="1:5" ht="18" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" ht="18" customHeight="1" spans="1:5">
+    <row r="34" spans="1:5" ht="18" customHeight="1">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" ht="18" customHeight="1" spans="1:5">
+    <row r="35" spans="1:5" ht="18" customHeight="1">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="11" t="s">
@@ -1504,35 +5381,37 @@
       <c r="E35" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12	&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:AP28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.62666666666667" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.7533333333333" style="7" customWidth="1"/>
-    <col min="2" max="5" width="9.25333333333333" style="7" customWidth="1"/>
-    <col min="6" max="14" width="7.62666666666667" style="7" customWidth="1"/>
-    <col min="15" max="33" width="9.25333333333333" style="7" customWidth="1"/>
-    <col min="34" max="256" width="7.62666666666667" style="7" customWidth="1"/>
+    <col min="1" max="1" width="26.75" style="7" customWidth="1"/>
+    <col min="2" max="5" width="9.25" style="7" customWidth="1"/>
+    <col min="6" max="14" width="7.625" style="7" customWidth="1"/>
+    <col min="15" max="33" width="9.25" style="7" customWidth="1"/>
+    <col min="34" max="256" width="7.625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47.25" customHeight="1" spans="1:42">
+    <row r="1" spans="1:42" ht="47.25" customHeight="1">
       <c r="A1" s="25"/>
       <c r="B1" s="26">
         <v>42032</v>
@@ -1658,7 +5537,7 @@
         <v>42072</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:42">
+    <row r="2" spans="1:42" ht="18" customHeight="1">
       <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
@@ -1704,7 +5583,7 @@
       <c r="AO2" s="12"/>
       <c r="AP2" s="12"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:42">
+    <row r="3" spans="1:42" ht="18" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1713,11 +5592,11 @@
       <c r="D3" s="33"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="47"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="43"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
@@ -1752,15 +5631,15 @@
       <c r="AO3" s="12"/>
       <c r="AP3" s="12"/>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:42">
+    <row r="4" spans="1:42" ht="18" customHeight="1">
       <c r="A4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
       <c r="I4" s="31"/>
@@ -1798,7 +5677,7 @@
       <c r="AO4" s="12"/>
       <c r="AP4" s="12"/>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:42">
+    <row r="5" spans="1:42" ht="18" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
@@ -1806,13 +5685,13 @@
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="39"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
-      <c r="L5" s="47"/>
+      <c r="L5" s="43"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
@@ -1844,22 +5723,22 @@
       <c r="AO5" s="12"/>
       <c r="AP5" s="12"/>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:42">
+    <row r="6" spans="1:42" ht="18" customHeight="1">
       <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -1892,19 +5771,19 @@
       <c r="AO6" s="12"/>
       <c r="AP6" s="12"/>
     </row>
-    <row r="7" ht="94.5" customHeight="1" spans="1:42">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:42" ht="94.5" customHeight="1">
+      <c r="A7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="47"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
@@ -1938,18 +5817,18 @@
       <c r="AO7" s="12"/>
       <c r="AP7" s="12"/>
     </row>
-    <row r="8" ht="54" customHeight="1" spans="1:42">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:42" ht="54" customHeight="1">
+      <c r="A8" s="40" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="48"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="31"/>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
@@ -1984,35 +5863,35 @@
       <c r="AO8" s="12"/>
       <c r="AP8" s="12"/>
     </row>
-    <row r="9" ht="53" customHeight="1" spans="1:42">
+    <row r="9" spans="1:42" ht="53" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
       <c r="M9" s="30"/>
       <c r="N9" s="31"/>
-      <c r="O9" s="44"/>
+      <c r="O9" s="42"/>
       <c r="P9" s="13" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="47"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="43"/>
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
@@ -2034,7 +5913,7 @@
       <c r="AO9" s="12"/>
       <c r="AP9" s="12"/>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:42">
+    <row r="10" spans="1:42" ht="18" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
@@ -2045,19 +5924,19 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
       <c r="O10" s="30"/>
       <c r="P10" s="32"/>
       <c r="Q10" s="32"/>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
       <c r="T10" s="32"/>
-      <c r="U10" s="38"/>
+      <c r="U10" s="36"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
@@ -2080,7 +5959,7 @@
       <c r="AO10" s="12"/>
       <c r="AP10" s="12"/>
     </row>
-    <row r="11" ht="53" customHeight="1" spans="1:42">
+    <row r="11" spans="1:42" ht="53" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
@@ -2092,20 +5971,20 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="43"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="47"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="43"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
@@ -2128,7 +6007,7 @@
       <c r="AO11" s="12"/>
       <c r="AP11" s="12"/>
     </row>
-    <row r="12" ht="18" customHeight="1" spans="1:42">
+    <row r="12" spans="1:42" ht="18" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
@@ -2144,7 +6023,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="44"/>
+      <c r="N12" s="42"/>
       <c r="O12" s="16" t="s">
         <v>15</v>
       </c>
@@ -2153,7 +6032,7 @@
       <c r="R12" s="29"/>
       <c r="S12" s="29"/>
       <c r="T12" s="29"/>
-      <c r="U12" s="47"/>
+      <c r="U12" s="43"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
@@ -2176,7 +6055,7 @@
       <c r="AO12" s="12"/>
       <c r="AP12" s="12"/>
     </row>
-    <row r="13" ht="18" customHeight="1" spans="1:42">
+    <row r="13" spans="1:42" ht="18" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>16</v>
       </c>
@@ -2193,12 +6072,12 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
@@ -2209,22 +6088,22 @@
       <c r="AB13" s="12"/>
       <c r="AC13" s="12"/>
       <c r="AD13" s="12"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="51" t="s">
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="46"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="46"/>
+      <c r="AK13" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="50"/>
+      <c r="AL13" s="46"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="46"/>
       <c r="AO13" s="12"/>
       <c r="AP13" s="12"/>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:42">
+    <row r="14" spans="1:42" ht="18" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
@@ -2270,7 +6149,7 @@
       <c r="AO14" s="12"/>
       <c r="AP14" s="12"/>
     </row>
-    <row r="15" ht="18" customHeight="1" spans="1:42">
+    <row r="15" spans="1:42" ht="18" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
@@ -2316,7 +6195,7 @@
       <c r="AO15" s="12"/>
       <c r="AP15" s="12"/>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:42">
+    <row r="16" spans="1:42" ht="18" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>20</v>
       </c>
@@ -2362,7 +6241,7 @@
       <c r="AO16" s="12"/>
       <c r="AP16" s="12"/>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="1:42">
+    <row r="17" spans="1:42" ht="18" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -2406,7 +6285,7 @@
       <c r="AO17" s="12"/>
       <c r="AP17" s="12"/>
     </row>
-    <row r="18" ht="18" customHeight="1" spans="1:42">
+    <row r="18" spans="1:42" ht="18" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -2450,7 +6329,7 @@
       <c r="AO18" s="12"/>
       <c r="AP18" s="12"/>
     </row>
-    <row r="19" ht="18" customHeight="1" spans="1:42">
+    <row r="19" spans="1:42" ht="18" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -2494,7 +6373,7 @@
       <c r="AO19" s="12"/>
       <c r="AP19" s="12"/>
     </row>
-    <row r="20" ht="18" customHeight="1" spans="1:42">
+    <row r="20" spans="1:42" ht="18" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -2538,17 +6417,17 @@
       <c r="AO20" s="12"/>
       <c r="AP20" s="12"/>
     </row>
-    <row r="21" ht="18" customHeight="1" spans="1:42">
-      <c r="A21" s="45" t="s">
+    <row r="21" spans="1:42" ht="18" customHeight="1">
+      <c r="A21" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
@@ -2584,15 +6463,15 @@
       <c r="AO21" s="12"/>
       <c r="AP21" s="12"/>
     </row>
-    <row r="22" ht="18" customHeight="1" spans="1:42">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
+    <row r="22" spans="1:42" ht="18" customHeight="1">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
@@ -2628,15 +6507,15 @@
       <c r="AO22" s="12"/>
       <c r="AP22" s="12"/>
     </row>
-    <row r="23" ht="18" customHeight="1" spans="1:42">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
+    <row r="23" spans="1:42" ht="18" customHeight="1">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
@@ -2672,15 +6551,15 @@
       <c r="AO23" s="12"/>
       <c r="AP23" s="12"/>
     </row>
-    <row r="24" ht="18" customHeight="1" spans="1:42">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
+    <row r="24" spans="1:42" ht="18" customHeight="1">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
@@ -2716,15 +6595,15 @@
       <c r="AO24" s="12"/>
       <c r="AP24" s="12"/>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:42">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
+    <row r="25" spans="1:42" ht="18" customHeight="1">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -2760,15 +6639,15 @@
       <c r="AO25" s="12"/>
       <c r="AP25" s="12"/>
     </row>
-    <row r="26" ht="18" customHeight="1" spans="1:42">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
+    <row r="26" spans="1:42" ht="18" customHeight="1">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
@@ -2804,15 +6683,15 @@
       <c r="AO26" s="12"/>
       <c r="AP26" s="12"/>
     </row>
-    <row r="27" ht="18" customHeight="1" spans="1:42">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
+    <row r="27" spans="1:42" ht="18" customHeight="1">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
@@ -2848,15 +6727,15 @@
       <c r="AO27" s="12"/>
       <c r="AP27" s="12"/>
     </row>
-    <row r="28" ht="18" customHeight="1" spans="1:42">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
+    <row r="28" spans="1:42" ht="18" customHeight="1">
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
@@ -2897,38 +6776,41 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="A21:H28"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" display="翻页模式、多页样式（图六） -（多页功能解决方案：多页功能其实就pc浏览器里的新增浏览页面的功能，做成和菜单栏一样的效果，界面同样参照百度浏览器， -每次滑动的页面都是一个新的webview，可参考 http://www.cnblogs.com/navyifanr/p/3226762.html，但不要用里面的viewflipper，就用viewpager）"/>
+    <hyperlink ref="A9" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:K34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.62666666666667" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="61.1" style="7" customWidth="1"/>
-    <col min="2" max="2" width="28.32" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.4666666666667" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.6266666666667" style="7" customWidth="1"/>
-    <col min="5" max="256" width="7.62666666666667" style="7" customWidth="1"/>
+    <col min="1" max="1" width="61.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="28.375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="7" customWidth="1"/>
+    <col min="5" max="256" width="7.625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customHeight="1" spans="1:11">
+    <row r="1" spans="1:11" ht="24" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
@@ -2951,7 +6833,7 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" ht="18" customHeight="1" spans="1:11">
+    <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="13" t="s">
         <v>27</v>
       </c>
@@ -2972,7 +6854,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:11">
+    <row r="3" spans="1:11" ht="18" customHeight="1">
       <c r="A3" s="16" t="s">
         <v>29</v>
       </c>
@@ -2995,7 +6877,7 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:11">
+    <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="A4" s="17" t="s">
         <v>32</v>
       </c>
@@ -3018,7 +6900,7 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:11">
+    <row r="5" spans="1:11" ht="18" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
@@ -3041,7 +6923,7 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:11">
+    <row r="6" spans="1:11" ht="18" customHeight="1">
       <c r="A6" s="16" t="s">
         <v>36</v>
       </c>
@@ -3064,7 +6946,7 @@
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" ht="18" customHeight="1" spans="1:11">
+    <row r="7" spans="1:11" ht="18" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>39</v>
       </c>
@@ -3087,7 +6969,7 @@
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" ht="18" customHeight="1" spans="1:11">
+    <row r="8" spans="1:11" ht="18" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>41</v>
       </c>
@@ -3108,7 +6990,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" ht="18" customHeight="1" spans="1:11">
+    <row r="9" spans="1:11" ht="18" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>43</v>
       </c>
@@ -3131,7 +7013,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:11">
+    <row r="10" spans="1:11" ht="18" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>45</v>
       </c>
@@ -3154,7 +7036,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" ht="18" customHeight="1" spans="1:11">
+    <row r="11" spans="1:11" ht="18" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>47</v>
       </c>
@@ -3177,7 +7059,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" ht="18" customHeight="1" spans="1:11">
+    <row r="12" spans="1:11" ht="18" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>49</v>
       </c>
@@ -3200,7 +7082,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" ht="18" customHeight="1" spans="1:11">
+    <row r="13" spans="1:11" ht="18" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>51</v>
       </c>
@@ -3223,7 +7105,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" ht="21" customHeight="1" spans="1:11">
+    <row r="14" spans="1:11" ht="21" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>53</v>
       </c>
@@ -3244,7 +7126,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" ht="18" customHeight="1" spans="1:11">
+    <row r="15" spans="1:11" ht="18" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>54</v>
       </c>
@@ -3267,7 +7149,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
     </row>
-    <row r="16" ht="13" customHeight="1" spans="1:11">
+    <row r="16" spans="1:11" ht="13" customHeight="1">
       <c r="A16" s="18" t="s">
         <v>56</v>
       </c>
@@ -3290,7 +7172,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
     </row>
-    <row r="17" ht="18" customHeight="1" spans="1:11">
+    <row r="17" spans="1:11" ht="18" customHeight="1">
       <c r="A17" s="16" t="s">
         <v>58</v>
       </c>
@@ -3311,12 +7193,12 @@
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" ht="18" customHeight="1" spans="1:11">
+    <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="19" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -3328,12 +7210,12 @@
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
     </row>
-    <row r="19" ht="18" customHeight="1" spans="1:11">
+    <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -3345,7 +7227,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" ht="18" customHeight="1" spans="1:11">
+    <row r="20" spans="1:11" ht="18" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -3358,9 +7240,9 @@
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" ht="18" customHeight="1" spans="1:11">
+    <row r="21" spans="1:11" ht="18" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>28</v>
@@ -3375,12 +7257,12 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" ht="18" customHeight="1" spans="1:11">
+    <row r="22" spans="1:11" ht="18" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -3392,9 +7274,9 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" ht="18" customHeight="1" spans="1:11">
+    <row r="23" spans="1:11" ht="18" customHeight="1">
       <c r="A23" s="23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>28</v>
@@ -3409,9 +7291,9 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" ht="18" customHeight="1" spans="1:11">
+    <row r="24" spans="1:11" ht="18" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>28</v>
@@ -3426,7 +7308,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" ht="18" customHeight="1" spans="1:11">
+    <row r="25" spans="1:11" ht="18" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -3439,7 +7321,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" ht="18" customHeight="1" spans="1:11">
+    <row r="26" spans="1:11" ht="18" customHeight="1">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -3452,7 +7334,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" ht="18" customHeight="1" spans="1:11">
+    <row r="27" spans="1:11" ht="18" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -3465,7 +7347,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" ht="18" customHeight="1" spans="1:11">
+    <row r="28" spans="1:11" ht="18" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -3478,7 +7360,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
     </row>
-    <row r="29" ht="18" customHeight="1" spans="1:11">
+    <row r="29" spans="1:11" ht="18" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -3491,7 +7373,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
     </row>
-    <row r="30" ht="18" customHeight="1" spans="1:11">
+    <row r="30" spans="1:11" ht="18" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -3504,7 +7386,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
     </row>
-    <row r="31" ht="18" customHeight="1" spans="1:11">
+    <row r="31" spans="1:11" ht="18" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -3517,7 +7399,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
     </row>
-    <row r="32" ht="18" customHeight="1" spans="1:11">
+    <row r="32" spans="1:11" ht="18" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -3530,7 +7412,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
     </row>
-    <row r="33" ht="18" customHeight="1" spans="1:11">
+    <row r="33" spans="1:11" ht="18" customHeight="1">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -3543,7 +7425,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
     </row>
-    <row r="34" ht="18" customHeight="1" spans="1:11">
+    <row r="34" spans="1:11" ht="18" customHeight="1">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -3557,115 +7439,120 @@
       <c r="K34" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A14" r:id="rId1" display="webview缓存机制http://blog.csdn.net/t12x3456/article/details/13745553  无痕浏览为不记录任何浏览记录，也就是数据库里不会有历史记录，无图浏览为webview不会抓取网页图片"/>
+    <hyperlink ref="A14" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="landscape" useFirstPageNumber="1"/>
+  <pageSetup orientation="landscape" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F11"/>
+  <dimension ref="A1:IV11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2533333333333" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.25" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="0.253333333333333" style="1" customWidth="1"/>
-    <col min="2" max="256" width="12.2533333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.25" style="1" customWidth="1"/>
+    <col min="2" max="256" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="2" customHeight="1"/>
-    <row r="2" ht="20.55" customHeight="1" spans="2:6">
+    <row r="1" spans="2:6" ht="2" customHeight="1"/>
+    <row r="2" spans="2:6" ht="20.5" customHeight="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" ht="40.55" customHeight="1" spans="2:6">
+    <row r="3" spans="2:6" ht="40.5" customHeight="1">
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" ht="28.05" customHeight="1" spans="2:6">
+    <row r="4" spans="2:6" ht="28" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" ht="28.05" customHeight="1" spans="2:6">
+    <row r="5" spans="2:6" ht="28" customHeight="1">
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" ht="58.05" customHeight="1" spans="2:6">
+    <row r="6" spans="2:6" ht="58" customHeight="1">
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" ht="58.05" customHeight="1" spans="2:6">
+    <row r="7" spans="2:6" ht="58" customHeight="1">
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" ht="20.35" customHeight="1" spans="2:6">
+    <row r="8" spans="2:6" ht="20.25" customHeight="1">
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" ht="20.35" customHeight="1" spans="2:6">
+    <row r="9" spans="2:6" ht="20.25" customHeight="1">
       <c r="B9" s="6"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" ht="20.35" customHeight="1" spans="2:6">
+    <row r="10" spans="2:6" ht="20.25" customHeight="1">
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" ht="20.35" customHeight="1" spans="2:6">
+    <row r="11" spans="2:6" ht="20.25" customHeight="1">
       <c r="B11" s="6"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3673,10 +7560,16 @@
       <c r="F11" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>